--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnas-Vipr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.5622448719804</v>
+        <v>111.005114</v>
       </c>
       <c r="H2">
-        <v>86.5622448719804</v>
+        <v>333.015342</v>
       </c>
       <c r="I2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J2">
-        <v>0.06193968979459518</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.6638608197120009</v>
+        <v>1.319393666666667</v>
       </c>
       <c r="N2">
-        <v>0.6638608197120009</v>
+        <v>3.958181</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4450432677409882</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4450432677409881</v>
       </c>
       <c r="Q2">
-        <v>57.46528283682386</v>
+        <v>146.4594443792114</v>
       </c>
       <c r="R2">
-        <v>57.46528283682386</v>
+        <v>1318.134999412902</v>
       </c>
       <c r="S2">
-        <v>0.06193968979459518</v>
+        <v>0.03390195892258639</v>
       </c>
       <c r="T2">
-        <v>0.06193968979459518</v>
+        <v>0.03390195892258639</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -590,60 +590,60 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>927.732656174847</v>
+        <v>111.005114</v>
       </c>
       <c r="H3">
-        <v>927.732656174847</v>
+        <v>333.015342</v>
       </c>
       <c r="I3">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J3">
-        <v>0.663839911046327</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.6638608197120009</v>
+        <v>0.8657286666666666</v>
       </c>
       <c r="N3">
-        <v>0.6638608197120009</v>
+        <v>2.597186</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.2920180113974439</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.2920180113974439</v>
       </c>
       <c r="Q3">
-        <v>615.8853616018258</v>
+        <v>96.10030933640132</v>
       </c>
       <c r="R3">
-        <v>615.8853616018258</v>
+        <v>864.902784027612</v>
       </c>
       <c r="S3">
-        <v>0.663839911046327</v>
+        <v>0.02224498907106988</v>
       </c>
       <c r="T3">
-        <v>0.663839911046327</v>
+        <v>0.02224498907106988</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -655,57 +655,57 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>69.5315113984222</v>
+        <v>111.005114</v>
       </c>
       <c r="H4">
-        <v>69.5315113984222</v>
+        <v>333.015342</v>
       </c>
       <c r="I4">
-        <v>0.04975333360793763</v>
+        <v>0.07617677061978854</v>
       </c>
       <c r="J4">
-        <v>0.04975333360793763</v>
+        <v>0.07617677061978853</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6638608197120009</v>
+        <v>0.7795190000000001</v>
       </c>
       <c r="N4">
-        <v>0.6638608197120009</v>
+        <v>2.338557</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.262938720861568</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.262938720861568</v>
       </c>
       <c r="Q4">
-        <v>46.1592461527709</v>
+        <v>86.53059546016601</v>
       </c>
       <c r="R4">
-        <v>46.1592461527709</v>
+        <v>778.7753591414942</v>
       </c>
       <c r="S4">
-        <v>0.04975333360793763</v>
+        <v>0.02002982262613227</v>
       </c>
       <c r="T4">
-        <v>0.04975333360793763</v>
+        <v>0.02002982262613227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,551 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>930.1503093333332</v>
+      </c>
+      <c r="H5">
+        <v>2790.450928</v>
+      </c>
+      <c r="I5">
+        <v>0.6383115534299679</v>
+      </c>
+      <c r="J5">
+        <v>0.6383115534299678</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>1.319393666666667</v>
+      </c>
+      <c r="N5">
+        <v>3.958181</v>
+      </c>
+      <c r="O5">
+        <v>0.4450432677409882</v>
+      </c>
+      <c r="P5">
+        <v>0.4450432677409881</v>
+      </c>
+      <c r="Q5">
+        <v>1227.234427182441</v>
+      </c>
+      <c r="R5">
+        <v>11045.10984464197</v>
+      </c>
+      <c r="S5">
+        <v>0.2840762595752993</v>
+      </c>
+      <c r="T5">
+        <v>0.2840762595752992</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>930.1503093333332</v>
+      </c>
+      <c r="H6">
+        <v>2790.450928</v>
+      </c>
+      <c r="I6">
+        <v>0.6383115534299679</v>
+      </c>
+      <c r="J6">
+        <v>0.6383115534299678</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.8657286666666666</v>
+      </c>
+      <c r="N6">
+        <v>2.597186</v>
+      </c>
+      <c r="O6">
+        <v>0.2920180113974439</v>
+      </c>
+      <c r="P6">
+        <v>0.2920180113974439</v>
+      </c>
+      <c r="Q6">
+        <v>805.2577870987341</v>
+      </c>
+      <c r="R6">
+        <v>7247.320083888607</v>
+      </c>
+      <c r="S6">
+        <v>0.1863984704846325</v>
+      </c>
+      <c r="T6">
+        <v>0.1863984704846325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>313.698262912969</v>
-      </c>
-      <c r="H5">
-        <v>313.698262912969</v>
-      </c>
-      <c r="I5">
-        <v>0.2244670655511401</v>
-      </c>
-      <c r="J5">
-        <v>0.2244670655511401</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.6638608197120009</v>
-      </c>
-      <c r="N5">
-        <v>0.6638608197120009</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>208.2519859596344</v>
-      </c>
-      <c r="R5">
-        <v>208.2519859596344</v>
-      </c>
-      <c r="S5">
-        <v>0.2244670655511401</v>
-      </c>
-      <c r="T5">
-        <v>0.2244670655511401</v>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>930.1503093333332</v>
+      </c>
+      <c r="H7">
+        <v>2790.450928</v>
+      </c>
+      <c r="I7">
+        <v>0.6383115534299679</v>
+      </c>
+      <c r="J7">
+        <v>0.6383115534299678</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7795190000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.338557</v>
+      </c>
+      <c r="O7">
+        <v>0.262938720861568</v>
+      </c>
+      <c r="P7">
+        <v>0.262938720861568</v>
+      </c>
+      <c r="Q7">
+        <v>725.0698389812106</v>
+      </c>
+      <c r="R7">
+        <v>6525.628550830896</v>
+      </c>
+      <c r="S7">
+        <v>0.1678368233700362</v>
+      </c>
+      <c r="T7">
+        <v>0.1678368233700362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H8">
+        <v>217.420334</v>
+      </c>
+      <c r="I8">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J8">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.319393666666667</v>
+      </c>
+      <c r="N8">
+        <v>3.958181</v>
+      </c>
+      <c r="O8">
+        <v>0.4450432677409882</v>
+      </c>
+      <c r="P8">
+        <v>0.4450432677409881</v>
+      </c>
+      <c r="Q8">
+        <v>95.62100389471712</v>
+      </c>
+      <c r="R8">
+        <v>860.5890350524541</v>
+      </c>
+      <c r="S8">
+        <v>0.02213404099623438</v>
+      </c>
+      <c r="T8">
+        <v>0.02213404099623438</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H9">
+        <v>217.420334</v>
+      </c>
+      <c r="I9">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J9">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.8657286666666666</v>
+      </c>
+      <c r="N9">
+        <v>2.597186</v>
+      </c>
+      <c r="O9">
+        <v>0.2920180113974439</v>
+      </c>
+      <c r="P9">
+        <v>0.2920180113974439</v>
+      </c>
+      <c r="Q9">
+        <v>62.74233862001377</v>
+      </c>
+      <c r="R9">
+        <v>564.681047580124</v>
+      </c>
+      <c r="S9">
+        <v>0.01452339380105305</v>
+      </c>
+      <c r="T9">
+        <v>0.01452339380105305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>72.47344466666667</v>
+      </c>
+      <c r="H10">
+        <v>217.420334</v>
+      </c>
+      <c r="I10">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="J10">
+        <v>0.04973458223193756</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.7795190000000001</v>
+      </c>
+      <c r="N10">
+        <v>2.338557</v>
+      </c>
+      <c r="O10">
+        <v>0.262938720861568</v>
+      </c>
+      <c r="P10">
+        <v>0.262938720861568</v>
+      </c>
+      <c r="Q10">
+        <v>56.49442711311534</v>
+      </c>
+      <c r="R10">
+        <v>508.449844018038</v>
+      </c>
+      <c r="S10">
+        <v>0.01307714743465013</v>
+      </c>
+      <c r="T10">
+        <v>0.01307714743465013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H11">
+        <v>1030.72615</v>
+      </c>
+      <c r="I11">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J11">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>1.319393666666667</v>
+      </c>
+      <c r="N11">
+        <v>3.958181</v>
+      </c>
+      <c r="O11">
+        <v>0.4450432677409882</v>
+      </c>
+      <c r="P11">
+        <v>0.4450432677409881</v>
+      </c>
+      <c r="Q11">
+        <v>453.3111847925722</v>
+      </c>
+      <c r="R11">
+        <v>4079.80066313315</v>
+      </c>
+      <c r="S11">
+        <v>0.1049310082468682</v>
+      </c>
+      <c r="T11">
+        <v>0.1049310082468681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H12">
+        <v>1030.72615</v>
+      </c>
+      <c r="I12">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J12">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.8657286666666666</v>
+      </c>
+      <c r="N12">
+        <v>2.597186</v>
+      </c>
+      <c r="O12">
+        <v>0.2920180113974439</v>
+      </c>
+      <c r="P12">
+        <v>0.2920180113974439</v>
+      </c>
+      <c r="Q12">
+        <v>297.4430585126555</v>
+      </c>
+      <c r="R12">
+        <v>2676.9875266139</v>
+      </c>
+      <c r="S12">
+        <v>0.06885115804068849</v>
+      </c>
+      <c r="T12">
+        <v>0.06885115804068849</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>343.5753833333333</v>
+      </c>
+      <c r="H13">
+        <v>1030.72615</v>
+      </c>
+      <c r="I13">
+        <v>0.2357770937183061</v>
+      </c>
+      <c r="J13">
+        <v>0.235777093718306</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7795190000000001</v>
+      </c>
+      <c r="N13">
+        <v>2.338557</v>
+      </c>
+      <c r="O13">
+        <v>0.262938720861568</v>
+      </c>
+      <c r="P13">
+        <v>0.262938720861568</v>
+      </c>
+      <c r="Q13">
+        <v>267.8235392406167</v>
+      </c>
+      <c r="R13">
+        <v>2410.41185316555</v>
+      </c>
+      <c r="S13">
+        <v>0.06199492743074944</v>
+      </c>
+      <c r="T13">
+        <v>0.06199492743074943</v>
       </c>
     </row>
   </sheetData>
